--- a/results/2019年第1季.xlsx
+++ b/results/2019年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7572 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>209</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>976,340</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>890,533</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>364,346</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>319,048</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>270,334</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-171,836</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30,451</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>268,950</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>923,241</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,177,846</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>5,055,098</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,906,566</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,489,845</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,657,517</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,387,527</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,726,273</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-2,202,826</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-29,321</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>567,500</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10,181,524</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8,369,046</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>41,026,121</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>17,504,776</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6,496,525</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5,064,227</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3,715,928</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6,526,103</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,008,466</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-1,128,638</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>5,588,899</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>57,456,768</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>36,911,557</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>109,194,586</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9,343,016</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,094,693</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,067,547</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>881,823</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>210,872</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-347,220</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>148,533</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>155,981</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>11,217,755</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2,997,916</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>39,131,567</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>749</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>551,125</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>350,249</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>219,449</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>184,790</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>278,540</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-372,239</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-952</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>278,477</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>512,520</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>75,658</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3,102,855</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>219</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14,416,809</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,384,062</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>750,820</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>620,400</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,459,559</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-1,431,248</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>223,239</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2,263,919</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>22,847,756</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,129,765</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>46,220,749</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,184</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-192</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-37,696</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-30,379</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-22,508</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-33,853</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-3,187</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-31,717</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>493,563</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>572,583</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,711,995</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,619,289</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>903,235</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>300,072</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>150,746</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>970,534</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-972,327</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-721,566</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12,046</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>9,362,249</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>16,138,441</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>36,137,321</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>114</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,446,591</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>476,896</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>263,389</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>189,293</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20,469</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-137,239</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>103,349</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-20,118</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>3,535,440</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1,079,820</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6,163,878</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,671,366</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,497,785</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,181,668</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>975,331</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2,550,613</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,838,385</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>135,512</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>717,268</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>11,937,454</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>16,959,615</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40,805,456</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,035,297</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>722,603</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>337,130</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>249,305</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>379,933</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-309,486</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-27,440</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>53,682</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>8,857,824</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>7,824,174</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>16,493,098</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,138,030</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>307,990</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-142,574</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>308,893</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-1,529,452</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-996,579</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2,103,238</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-3,075,139</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>23,842,852</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>20,816,179</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>91,489,890</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>152,301</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15,979</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-50,260</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-40,400</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-11,734</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>12,994</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-1,533</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-18,618</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>630,907</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-5.80</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-3.00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>351,307</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,316,961</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>228</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>18,192,278</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6,507,283</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>376,068</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>241,217</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2,184,267</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-2,104,474</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-1,464,162</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,533,842</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>46,409,246</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10,166,226</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>52,415,724</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>33.85</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>408,430</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>97,954</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7,604</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>61,082</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-55,250</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>45,242</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>36,908</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2,470,778</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>849,665</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,953,343</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,773,873</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>440,547</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>230,525</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>181,375</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>957,458</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-770,784</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-203,080</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>240,013</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>7,402,591</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>10,928,934</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>18,633,840</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>35.45</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5,072,485</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,252,005</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>386,157</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>277,332</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-1,412,095</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-1,383,118</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-1,573,160</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-1,599,365</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10,816,522</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2,538,919</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>30,757,328</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,479,327</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>340,047</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21,557</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25,668</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>64,305</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-80,520</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-52,927</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10,438</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2,863,879</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>439,144</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>3,908,716</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>562,082</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-244,658</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-317,217</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-326,144</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>63,528</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-194,631</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-39,302</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-127,000</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,074,435</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-11.11</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-5.14</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3,803,694</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5,845,049</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>395,861</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>115,476</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-9,149</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1,738</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>138,602</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-228,643</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>91,048</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-74,081</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1,109,686</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>786,311</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>3,713,551</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2,155,992</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>348,440</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>175,244</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>123,940</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>394,809</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-184,334</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-251,676</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>256,034</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>4,319,114</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2,442,980</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>9,656,302</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>60,972</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41,844</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-7,173</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-7,124</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-3,449</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-7,534</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,555</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-10,165</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>103,505</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-1.57</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.23</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>150,347</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>553,667</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>309,888</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>67,636</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>16,643</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>20,355</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>122,806</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-18,824</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>29,139</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>77,220</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>513,954</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,107,206</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,388,043</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,229,404</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>486,465</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87,951</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>92,038</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-104,126</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-43,737</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-805</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-128,322</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>3,742,886</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,908,265</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>7,965,223</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,381,439</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>619,940</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>210,783</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>204,607</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-995,092</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-41,768</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1,115,991</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-1,018,763</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>7,271,513</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>4,532,473</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>12,326,136</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>43</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6,406,269</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>692,125</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>61,834</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>152,380</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-107,443</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>15,870</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>116,432</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-13,985</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>15,569,299</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,552,217</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>23,399,167</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7,282</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3,603</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-86,458</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-80,222</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-35,685</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-12,388</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>7,807</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-35,685</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>146,924</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-6.48</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-5.84</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>8,672</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1,349,187</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3,171,477</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-162,461</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-278,976</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-292,473</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2,676,390</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-308,716</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2,992,962</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-2,935,308</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>21,051,539</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-4.20</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-1.07</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,695,261</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28,996,620</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>117</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,924,527</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>587,876</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>350,793</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>254,732</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>455,752</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-34,248</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2,054</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>423,888</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,435,472</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1,357,898</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>5,611,452</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1,398,943</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>172,024</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>16,663</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-6,730</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-288,975</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-109,966</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>248,748</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-325,798</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>3,021,697</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>832,533</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>4,593,311</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,883,400</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,372,474</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>166,898</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1,964,478</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-777,559</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-1,135,287</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-969,534</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-1,227,112</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>23,441,539</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,122,790</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>39,660,565</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>112,100</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13,754</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4,919</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10,383</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-24,241</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-940</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-25,343</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>226,185</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>353,906</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,632,464</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>187,729</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>71,923</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27,891</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>23,356</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>29,076</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-364</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-24,910</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>28,990</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>254,144</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>189,835</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>736,276</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>96,229,631</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9,271,354</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5,253,929</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,143,104</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,479,744</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-7,000,224</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-4,281,985</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>8,202,189</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>337,828,782</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>394,346,711</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>685,464,252</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,871,214</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-24,931</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-89,900</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-134,964</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>236,749</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-545,476</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>401,721</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-205,744</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>14,916,141</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>16,185,060</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>20,693,881</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>592,891</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5,129</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-7,666</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8,529</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-57,980</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-9,192</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-172,135</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-67,172</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,314,908</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>860,702</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,961,391</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>371,223</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>199,833</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30,910</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>25,767</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>92,455</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-3,988</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-38,495</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>86,131</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>999,111</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>755,366</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2,067,618</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>505,166</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>131,695</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84,646</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>60,772</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-47,372</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-42,115</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>32,332</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-47,590</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>5,356,400</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22,597</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>8,037,955</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>207,987</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>23,948</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-3,605</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-16,205</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-30,842</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-15,824</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>40,667</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-35,497</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>434,084</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-2.04</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-1.22</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>362,160</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>60,184</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15,554</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>20,082</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>54,590</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-6,619</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-5,763</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>47,970</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>273,692</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>265,694</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,735,928</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>315,765</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>82,743</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13,553</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>12,601</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>23,004</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>21,884</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-36,587</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>14,003</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>970,218</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>896,920</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,829,002</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>34</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>214,901</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18,151</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-81,770</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-41,300</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>16,510</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-43,154</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-10,409</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-6,722</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,575,853</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-2.53</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>470,492</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,195,953</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>430,685</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>34,485</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-27,151</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-34,048</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>39,795</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-63,288</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>155,521</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-41,209</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,664,465</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>858,039</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3,095,842</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,540,795</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,349,864</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-14,406</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1,119,246</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-457,953</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1,370,281</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-832,080</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-817,968</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>13,219,010</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>10,011,670</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>20,616,596</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>996,828</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>308,201</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23,134</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>16,528</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-276,622</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-5,268</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>277,380</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-283,276</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>6,408,746</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,104,386</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>12,754,056</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>107,791,643</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>37,102,312</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>7,515,278</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7,824,113</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>9,217,523</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-12,892,059</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-5,373,590</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>5,482,869</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>283,553,662</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>136,562,039</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>466,280,316</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,041,307</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>156,372</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-194,899</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-215,145</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>142,999</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-189,179</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>456,549</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-32,266</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>10,130,913</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-0.70</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>12,354,113</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>23,793,814</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1,833,004</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>324,686</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25,077</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>178,015</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-996,607</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-195,229</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-2,660,420</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-1,012,191</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>3,437,510</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>8,698,267</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>23,058,698</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>59,924,024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>875,304</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-4,607,411</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-3,724,795</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3,891,176</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>11,402,856</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-5,864,916</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-2,873,542</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>151,111,094</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>-1.47</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>-0.84</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>206,117,747</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>404,514,059</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11,371,805</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,632,564</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3,019,538</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3,586,006</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,915,615</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-1,655,537</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-1,375,700</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>4,192,821</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>16,918,069</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>92,935,583</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>184,559,325</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>576,893</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>75,235</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3,066</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-65,805</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>260,635</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>64,802</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-215,969</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>255,806</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>7,741,633</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-4.78</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,426,585</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>9,085,627</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,054,302,519</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>58,302,574</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16,108,932</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>24,161,409</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>131,057,964</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-3,303,114</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-118,623,128</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>108,491,643</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,642,347,588</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>279,992,163</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>3,040,867,509</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,690,605</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>342,936</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>155,915</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>131,418</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-1,310,181</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>400,128</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-93,333</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-1,344,886</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>14,989,046</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>908,395</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>26,918,470</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9,226,599</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4,806,198</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,041,409</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>578,450</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-3,177,649</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-1,736,114</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-4,839,618</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-3,629,670</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>85,094,613</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>33,791,136</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>123,107,557</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>870,222</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>189,347</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-50,673</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,109,497</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-267,661</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>649,056</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>261,150</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-287,884</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>29,814,641</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,237,216</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>88,201,818</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>151,564</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16,648</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>3,789</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>18,936</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>20,964</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-365</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>20,684</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>160,227</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>359,461</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,494,360</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,437,817</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,591,578</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>347,861</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>719,310</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>984,350</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-296,960</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-749,584</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>265,721</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>32,711,533</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>19,117,244</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>55,887,485</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>43.55</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>26,800,257</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5,792,338</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1,665,895</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1,054,270</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4,663,851</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-2,156,498</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-2,830,070</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2,417,352</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>92,366,187</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>103,861,596</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>174,714,066</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>107</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>51,331,161</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17,850,373</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>10,401,813</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,526,713</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>13,218,715</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-2,729,765</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-918,883</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>8,726,334</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>85,127,687</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>284,681,139</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>480,031,601</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3,215,854</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>527,856</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-14,055</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1,081</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-744,657</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>168,700</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-1,616</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-757,151</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4,089,144</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>1,828,961</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14,607,587</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>35,348</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25,145</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-5,487</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>65,944</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-110,533</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-53,456</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>234,148</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-110,533</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12,162,425</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>19,905,210</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>169,116,633</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>13,101,397</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>10,519,046</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9,217,988</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>16,722,445</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-2,791,720</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-557,448</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>14,826,029</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>72,977,157</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>104,912,429</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>429,598,459</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,980,584</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>750,186</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88,113</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>84,641</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-111,352</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-12,134</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>185,372</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-162,136</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,232,647</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>3,985,154</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>11,129,263</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2,182,671</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1,079,091</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>445,841</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>287,031</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>163,014</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-1,775,761</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>1,651,162</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-1,266,831</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>10,130,053</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,828,359</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>18,046,321</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38.45</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,309,893</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,294,198</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>537,357</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>469,987</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,175,408</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-780,710</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-209,212</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>374,548</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>14,714,613</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>20,521,319</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>37,242,502</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>242</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,836,231</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,503,189</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>368,131</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,514,128</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-2,430,890</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-118,105</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-12,989</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-2,577,301</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>6,082,797</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,675,514</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>28,418,746</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>916,735</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>231,506</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>113,271</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>56,843</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-72,418</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-1,046,235</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>868,008</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-1,123,831</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>7,275,352</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>10,407,965</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>13,179,769</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>45,697,052</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,412,922</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1,303,077</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>463,906</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2,872,974</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-3,679,579</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>91,562</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2,296,824</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>219,971,317</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>102,991,874</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>291,570,162</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>963,647</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>134,583</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>61,026</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-98,325</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>199,531</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-75,039</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-198,483</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>158,991</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20,543,282</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>24,360,190</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>25,895,334</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>30</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>61,919,917</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10,873,732</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,435,341</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,441,689</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>9,346,357</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-5,398,791</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-6,045,020</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>3,246,724</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>298,214,003</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>162,465,042</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>574,820,653</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>211,137</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2,370</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-14,533</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-11,829</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-47,017</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-22,555</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>71,492</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-56,032</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,517,522</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,647,043</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,617,542</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>496,161</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>155,486</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>56,608</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>41,259</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>56,857</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-167,224</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>85,366</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-41,523</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>634,186</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>1,083,615</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2,383,475</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>32,582,959</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2,262,080</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-1,597,464</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>92,607</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>8,183,111</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-5,682,769</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2,179,614</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2,810,464</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>164,323,368</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>167,822,550</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>374,137,580</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>81</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,267,041</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>397,625</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>190,145</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>162,998</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>268,381</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-204,687</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-73,063</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>55,319</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,099,421</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,864,828</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>11,317,963</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>711,254</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>154,781</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21,838</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>49,842</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>48,224</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-280,390</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>256,679</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-168,581</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>1,774,323</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>935,307</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,404,614</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5,260,124</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,122,983</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>458,405</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>379,366</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,063,720</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,161,038</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-217,927</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-102,646</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>22,317,476</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>32,363,089</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>47,412,359</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>37</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>81,333,120</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,672,384</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,491,242</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,773,665</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10,488,721</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-73,035</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-5,399,111</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>10,487,153</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>87,415,077</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>7,016,918</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>140,812,047</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4,886,539</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>793,577</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>126,544</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>78,079</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>513,577</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-74,317</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-225,944</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>473,276</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>9,665,393</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,697,967</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>14,338,087</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>12,065,881</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>918,037</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>323,435</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>344,880</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>760,933</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-195,358</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-503,827</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>740,877</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>18,555,357</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,001,022</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>31,503,383</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>7,989,917</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>321,989</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83,273</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>43,825</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>1,334,788</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-5,252</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-1,261,455</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1,331,953</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>8,003,746</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>304,283</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10,785,150</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>804,808</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>344,074</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>112,766</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>113,089</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5,976</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-108,372</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-23,753</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-23,485</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>1,322,788</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>5,351,513</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,492,143</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>506,259</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>169,778</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-38,673</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-84,410</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-175,680</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-9,903</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-155,066</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-190,695</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10,925,633</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-3.98</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,468,990</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13,005,794</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,680,303</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>569,560</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>304,317</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>304,675</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>3,541</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-76,879</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-91,881</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-42,388</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>7,236,730</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,744,269</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>11,862,193</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>310,929</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>256,156</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-36,486</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-62,910</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>116,401</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-79,051</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-79,149</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>25,035</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4,593,010</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.48</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1,091,948</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>6,363,493</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>190</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>16,912,217</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4,059,493</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,928,326</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,628,639</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,164,614</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-948,967</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1,033,410</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>242,605</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>17,561,875</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>14,866,430</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>36,948,734</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,694,456</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,092,515</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,028,256</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>724,437</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>368,190</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-774,474</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1,150,539</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-16,468</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>32,201,526</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>9,395,314</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>55,456,030</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11,707,047</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2,903,856</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>926,078</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>706,422</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-273,535</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-97,993</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-74,636</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-356,882</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>38,335,980</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>17,162,909</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>98,873,049</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,106,303</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>194,276</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>66,774</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>68,282</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-36,191</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-9,499</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>106,888</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-50,983</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,685,689</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,011,759</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,648,697</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>6,665,844</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,242,224</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>565,549</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>520,586</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>379,133</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-267,027</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-306,981</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>198,109</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>16,110,057</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6,555,053</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>40,308,613</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>210,600,553</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,662,179</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,421,498</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1,659,701</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>7,385,412</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,098,203</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-11,029,521</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6,353,766</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>274,676,212</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>20,405,435</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>390,269,778</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>221</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>85,929,224</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>11,012,419</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1,703,521</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2,454,390</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-4,379,952</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>107,220</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-208,845</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-5,660,883</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>157,923,841</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>17,694,562</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>333,706,125</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>39,853,724</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5,317,988</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1,442,007</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1,116,252</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>416,382</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-3,465,843</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>5,117,270</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-330,115</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>82,838,836</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>21,445,170</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>124,874,261</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>232</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>12,300,590</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4,724,054</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,858,169</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,622,869</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,048,079</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-813,643</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>125,886</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>874,695</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15,221,739</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,854,043</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>46,863,774</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>16,025,140</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,067,788</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>145,433</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>230,599</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-434,647</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-51,442</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-26,281</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-525,084</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>14,162,462</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,105,448</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>39,109,941</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>161,945</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>53,185</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6,855</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>19,856</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-80,874</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-4,313</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>19,787</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>387,150</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>7,472</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,122,394</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,967,395</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>277,840</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93,462</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>83,652</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-168,572</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-153,368</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>132,839</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-306,348</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>4,294,476</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>988,125</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>6,894,575</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>815,750</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>424,094</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>190,600</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>167,988</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>192,075</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-56</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>-47,452</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>192,075</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>497,916</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>13,468</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,667,309</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
